--- a/biology/Botanique/Liste_de_plantes_endémiques_de_France/Liste_de_plantes_endémiques_de_France.xlsx
+++ b/biology/Botanique/Liste_de_plantes_endémiques_de_France/Liste_de_plantes_endémiques_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_end%C3%A9miques_de_France</t>
+          <t>Liste_de_plantes_endémiques_de_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article liste les plantes endémiques de France : départements métropolitains (dont la Corse), départements d'outre-mer (Guadeloupe, Martinique, Guyane et Réunion) et collectivités d'outre-mer à statut proche du statut départemental (Saint-Pierre-et-Miquelon, Mayotte, Saint-Martin et Saint-Barthélemy), mais n'inclut pas les anciens territoires d'outre-mer de Wallis-et-Futuna (collectivité territoriale), de la Polynésie française et de la Nouvelle-Calédonie (pays d'outre-mer) et des îles Éparses, de l'île de Clipperton et des Terres australes et antarctiques françaises (districts d'outre-mer).
 Une espèce de plante est dite endémique d'une zone géographique lorsqu'elle n'existe que dans cette zone à l'état spontané.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_end%C3%A9miques_de_France</t>
+          <t>Liste_de_plantes_endémiques_de_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Neckeracées
-Neckeropsis pocsii (Mayotte)</t>
+          <t>Neckeracées</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Neckeropsis pocsii (Mayotte)</t>
         </is>
       </c>
     </row>
@@ -526,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_end%C3%A9miques_de_France</t>
+          <t>Liste_de_plantes_endémiques_de_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,20 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Aspidiaceae
-Ctenitis lanata (La Réunion)
-Aspléniacées
-Doradille du Verdon (Asplenium jahandiezii) (Var et Alpes-de-Haute-Provence) (NT)[1]
-Cyathéacées
-Fanjan femelle (Cyathea glauca) (La Réunion)
-Dryoptéridacées
-Dryoptéris des Cévennes (Dryopteris ardechensis)
-Lomariopsidacées
-Elaphoglossum richardii (La Réunion)
-Ptéridacées
-Adiantum oyapokense (Guyane)
-Thélypteridacées
-Amauropelta heteroptera (La Réunion)</t>
+          <t>Aspidiaceae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ctenitis lanata (La Réunion)</t>
         </is>
       </c>
     </row>
@@ -569,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_end%C3%A9miques_de_France</t>
+          <t>Liste_de_plantes_endémiques_de_France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,13 +594,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lycopsides</t>
+          <t>Fougères</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Isoétacées
-Isoète de Bory (Isoetes boryana) (Gironde et Landes)</t>
+          <t>Aspléniacées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Doradille du Verdon (Asplenium jahandiezii) (Var et Alpes-de-Haute-Provence) (NT)</t>
         </is>
       </c>
     </row>
@@ -600,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_end%C3%A9miques_de_France</t>
+          <t>Liste_de_plantes_endémiques_de_France</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,40 +630,497 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Plantes à fleurs</t>
+          <t>Fougères</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>En 2007, les angiospermes comprennent en France environ 150 familles contenant 6 000 espèces. 107 espèces sont strictement endémiques du territoire national métropolitain et 73 espèces subendémiques, c’est-à-dire présentes en France et dans un autre pays, généralement limitrophe[2].
-Aizoacées
-Lavangère (Delosperma napiforme) (La Réunion)
-Amaranthacées
-Corisperme de France (Corispermum gallicum) (VU)[1]
-Amaryllidacées (incluant les ex-Alliacées)
-Nivéole de Fabre (Acis fabrei) (décrite en 1990 ; mont Ventoux) (VU)[1]
-Nivéole à feuilles longues (Acis longifolia) (Corse) (LC)[1]
-Nivéole de Nice (Acis nicaeensis) (Alpes-Maritimes) (EN)[1]
-Ail de Corse (Allium corsicum) (Corse) (VU)[1]
-Allium scaberrimum [Information douteuse]
-Anacardiacées
-Comocladia undulata (Martinique)
-Tapirira bethanniana (Guyane)
-Apiacées (Ombellifères)
-Angélique à fruits variés (Angelica heterocarpa) (de la Loire-Atlantique aux Pyrénées-Atlantiques) (LC)[1]
-Buplèvre de Corse (Bupleurum corsicum) (Corse) (LC)[1]
-Carotte de Gadeceau (Daucus carota subsp. gadecaei) (Bretagne) (sous-espèce) (VU)[1]
+          <t>Cyathéacées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fanjan femelle (Cyathea glauca) (La Réunion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fougères</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dryoptéridacées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dryoptéris des Cévennes (Dryopteris ardechensis)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Fougères</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Lomariopsidacées</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Elaphoglossum richardii (La Réunion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Fougères</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ptéridacées</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Adiantum oyapokense (Guyane)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Fougères</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Thélypteridacées</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Amauropelta heteroptera (La Réunion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lycopsides</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Isoétacées</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Isoète de Bory (Isoetes boryana) (Gironde et Landes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2007, les angiospermes comprennent en France environ 150 familles contenant 6 000 espèces. 107 espèces sont strictement endémiques du territoire national métropolitain et 73 espèces subendémiques, c’est-à-dire présentes en France et dans un autre pays, généralement limitrophe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Aizoacées</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Lavangère (Delosperma napiforme) (La Réunion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Amaranthacées</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Corisperme de France (Corispermum gallicum) (VU)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Amaryllidacées (incluant les ex-Alliacées)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Nivéole de Fabre (Acis fabrei) (décrite en 1990 ; mont Ventoux) (VU)
+Nivéole à feuilles longues (Acis longifolia) (Corse) (LC)
+Nivéole de Nice (Acis nicaeensis) (Alpes-Maritimes) (EN)
+Ail de Corse (Allium corsicum) (Corse) (VU)
+Allium scaberrimum [Information douteuse]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Anacardiacées</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Comocladia undulata (Martinique)
+Tapirira bethanniana (Guyane)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Apiacées (Ombellifères)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Angélique à fruits variés (Angelica heterocarpa) (de la Loire-Atlantique aux Pyrénées-Atlantiques) (LC)
+Buplèvre de Corse (Bupleurum corsicum) (Corse) (LC)
+Carotte de Gadeceau (Daucus carota subsp. gadecaei) (Bretagne) (sous-espèce) (VU)
 Berce de Lecoq (Heracleum lecoqii) (Massif central) (parfois considérée comme une sous-espèce de Heracleum sibiricum)
-Berce naine (Heracleum minimum) (régions Rhône-Alpes et Provence-Alpes-Côte d'Azur) (LC)[1]
-Ligustique de Corse (Mutellina corsica) (Corse) (LC)[1]
+Berce naine (Heracleum minimum) (régions Rhône-Alpes et Provence-Alpes-Côte d'Azur) (LC)
+Ligustique de Corse (Mutellina corsica) (Corse) (LC)
 Œnanthe de Foucaud (Oenanthe foucaudii) (Vendée, Charente-Maritime et Gironde)
-Panais à larges feuilles (Pastinaca kochii) (Corse) (LC)[1]
-Peucédan en panicule (Peucedanum paniculatum) (Corse) (LC)[1]
-Séséli de Djiane (Seseli djianeae) (Corse) (LC)[1]
-Apocynacées
-Bonafousia morettii (Guyane)
-Araliacées
-Bois d'éponge (Gastonia cutispongia) (La Réunion)
+Panais à larges feuilles (Pastinaca kochii) (Corse) (LC)
+Peucédan en panicule (Peucedanum paniculatum) (Corse) (LC)
+Séséli de Djiane (Seseli djianeae) (Corse) (LC)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Apocynacées</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Bonafousia morettii (Guyane)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Araliacées</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Bois d'éponge (Gastonia cutispongia) (La Réunion)
 Oreopanax ramosissimus (Martinique)
 Polyscias aemiliguineae (La Réunion)
 Polyscias bernieri (La Réunion)
@@ -657,30 +1129,234 @@
 Bois de Papaye (Polyscias rivalsii) (La Réunion)
 Polyscias sessiliflora (La Réunion)
 Arbre de la félicité (Polyscias scutellaria) (La Réunion)
-Schefflera urbaniana (Martinique)
-Arécacées (palmiers)
-Palmiste poison (Hyophorbe indica) (La Réunion)
-Latanier rouge (Latania lontaroides) (La Réunion)
-Aristolochiacées
-Aristolochia bukuti (Guyane)
-Aristolochia cremersii (Guyane)
-Asclépiadacées
-Matalea sastrei (Guyane)
-Asphodèlacées
-Aloe mayottensis (Mayotte)
-Astéliacées
-Ananas marron (Astelia hemichrysa) (La Réunion)
-Astéracées (Composées)
-Anthemis gerardiana
-Armoise insipide (Artemisia insipida) (Hautes-Alpes) - Éteinte ? (CR)[1]
-Armoise de Molinier (Artemisia molinieri) (VU)[1]
-Pâquerette de Bernard (Bellis bernardii) (Corse) (LC)[1]
-Pâquerette des neiges (Bellium nivale) (Corse) (LC)[1]
-Chardon du mont Aurouse (Carduus aurosicus) (NT)[1]
-Centaurée de la Clape (Centaurea corymbosa) (Aude) (EN)[1]
+Schefflera urbaniana (Martinique)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Arécacées (palmiers)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Palmiste poison (Hyophorbe indica) (La Réunion)
+Latanier rouge (Latania lontaroides) (La Réunion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Aristolochiacées</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Aristolochia bukuti (Guyane)
+Aristolochia cremersii (Guyane)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Asclépiadacées</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Matalea sastrei (Guyane)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Asphodèlacées</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Aloe mayottensis (Mayotte)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Astéliacées</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Ananas marron (Astelia hemichrysa) (La Réunion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Astéracées (Composées)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Anthemis gerardiana
+Armoise insipide (Artemisia insipida) (Hautes-Alpes) - Éteinte ? (CR)
+Armoise de Molinier (Artemisia molinieri) (VU)
+Pâquerette de Bernard (Bellis bernardii) (Corse) (LC)
+Pâquerette des neiges (Bellium nivale) (Corse) (LC)
+Chardon du mont Aurouse (Carduus aurosicus) (NT)
+Centaurée de la Clape (Centaurea corymbosa) (Aude) (EN)
 Centaurée bleuâtre (Centaurea pseudocineraria) (Alpes-Maritimes)
-Doronic corse (Doronicum corsicum) (Corse) (LC)[1]
-Vergerette de Paoli (Erigeron paolii) (Corse) (LC)[1]
+Doronic corse (Doronicum corsicum) (Corse) (LC)
+Vergerette de Paoli (Erigeron paolii) (Corse) (LC)
 Eriotrix commersonii (La Réunion)
 Eriotrix lycopodioides (La Réunion)
 Faujasia cadetiana (La Réunion)
@@ -688,23 +1364,23 @@
 Chasse vieillesse (Faujasia salicifolia) (La Réunion)
 Petit velours blanc (Helichrysum arnicoides) (La Réunion)
 Velours blanc (Helichrysum heliotropifolium) (La Réunion)
-Epervière d'Ardisson (Hieracium ardissonei) (Alpes-Maritimes) (DD)[1]
-Hieracium buglossoides (Pyrénées-Orientales) (NT)[1]
-Epervière de Chaboissau (Hieracium chaboissaei) (Alpes) (VU)[1]
-Epervière de Chaix (Hieracium chaixianum) (Hautes-Alpes) (EN)[1]
-Epervière à poils blancs ou Epervière des dunes (Hieracium eriophorum) (côte atlantique de la Gironde aux Basses-Pyrénées) (LC)[1]
-Epervière de Gavarnie (Hieracium gavarniense) (DD)[1]
-Hieracium gavellei (EN)[1]
-Hieracium marsillyanum (EN)[1]
-Epervière de Neyra (Hieracium neyranum) (Hautes-Alpes) (DD)[1]
-Hieracium petrosae  (NT)[1]
-Hieracium pulviscapum (EN)[1]
-Hieracium querceticola (DD)[1]
-Epervière de Ravaud (Hieracium ravaudii) (EN)[1] (Drôme, Hautes-Alpes)
-Epervière de Rotgès (Hieracium rotgesianum) (NT)[1]
-Hieracium runcinatolobatum (LC)[1]
-Hieracium sarretoides (VU)[1] (Aveyron, Lozère, Gard)
-Hieracium (EN)[1]
+Epervière d'Ardisson (Hieracium ardissonei) (Alpes-Maritimes) (DD)
+Hieracium buglossoides (Pyrénées-Orientales) (NT)
+Epervière de Chaboissau (Hieracium chaboissaei) (Alpes) (VU)
+Epervière de Chaix (Hieracium chaixianum) (Hautes-Alpes) (EN)
+Epervière à poils blancs ou Epervière des dunes (Hieracium eriophorum) (côte atlantique de la Gironde aux Basses-Pyrénées) (LC)
+Epervière de Gavarnie (Hieracium gavarniense) (DD)
+Hieracium gavellei (EN)
+Hieracium marsillyanum (EN)
+Epervière de Neyra (Hieracium neyranum) (Hautes-Alpes) (DD)
+Hieracium petrosae  (NT)
+Hieracium pulviscapum (EN)
+Hieracium querceticola (DD)
+Epervière de Ravaud (Hieracium ravaudii) (EN) (Drôme, Hautes-Alpes)
+Epervière de Rotgès (Hieracium rotgesianum) (NT)
+Hieracium runcinatolobatum (LC)
+Hieracium sarretoides (VU) (Aveyron, Lozère, Gard)
+Hieracium (EN)
 Ambaville (Hubertia ambavilla) (La Réunion)
 Ambaville blanc (Hubertia tomentosa (La Réunion)
 Leucanthemum burnatii
@@ -722,17 +1398,85 @@
 Séneçon de Bayonne (Senecio bayonnensis)
 Séneçon du Rouergue (Senecio ruthenensis) (Charente-Maritime et Aveyron)
 Branle blanc (Stoebe passerinoides) (La Réunion)
-Bois de source (Vernonia fimbrillifera) (La Réunion)
-Boraginacées
-Grémil du Béarn (Buglossoides gastonii) (Pyrénées-Atlantiques)
+Bois de source (Vernonia fimbrillifera) (La Réunion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Boraginacées</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Grémil du Béarn (Buglossoides gastonii) (Pyrénées-Atlantiques)
 Myosotis gallica
 Myosotis ruscinonensis
 Cynoglosse des dunes (Omphalodes littoralis) (du Finistère à la Bretagne et à la Charente-Maritime)
 Tournefortia acuminata (La Réunion)
 Tournefortia arborescens (La Réunion)
-Tournefortia bojeri (La Réunion)
-Brassicacées (Crucifères)
-Alyssum loiseleurii P.Fourn.
+Tournefortia bojeri (La Réunion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Brassicacées (Crucifères)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Alyssum loiseleurii P.Fourn.
 Passerage de Robert (Alyssum robertianum) (Corse)
 Arabette des Cévennes (Arabidopsis cebennensis) (Cévennes, Aubrac, Cantal)
 Biscutella apricorum
@@ -751,24 +1495,160 @@
 Drave de Loiseleur (Draba loiseleurii) (Corse)
 Hormathophylla pyrenaica
 Corbeille d'argent de l'Aurouze (Iberis aurosica) (région Provence-Alpes-Côte d'Azur)
-Corbeille d'argent à gros fruits (Ptilotrichum macrocarpum) (régions Rhône-Alpes, Languedoc-Roussillon et Midi-Pyrénées)
-Broméliacées
-Bromelia agavifolia (Guyane)
+Corbeille d'argent à gros fruits (Ptilotrichum macrocarpum) (régions Rhône-Alpes, Languedoc-Roussillon et Midi-Pyrénées)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Broméliacées</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Bromelia agavifolia (Guyane)
 Disteganthus basilateralis (Guyane)
 Pitcairnia geyskesii (Guyane)
 Pitcairnia leprieuri (Guyane)
-Pitcairnia sastrei (Guyane)
-Buxacées
-Buxus subcolumnaris (Martinique)
-Campanulacées
-Campanula fritschii
+Pitcairnia sastrei (Guyane)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Buxacées</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Buxus subcolumnaris (Martinique)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Campanulacées</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Campanula fritschii
 Heterochaenia rivalsii (La Réunion)
 Phyteuma gallicum
 Phyteuma rupicola
 Raiponce dentée (Phyteuma serratum) (Corse)
-Lobelia persicifolia  (Guadeloupe)
-Caryophyllacées
-Sabline cendrée (Arenaria cinerea)
+Lobelia persicifolia  (Guadeloupe)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Caryophyllacées</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Sabline cendrée (Arenaria cinerea)
 Sabline des chaumes (Arenaria controversa) (peut-être aussi en Andorre ?)
 Sabline de Lozère (Arenaria ligericina) - Causses de la Lozère et de l'Aveyron.
 Sabline de Provence (Arenaria provincialis) (Bouches-du-Rhône et Var)
@@ -778,49 +1658,559 @@
 Minuartia olonensis
 Sabline du Verdon (Moehringia provincialis) (Var et Alpes-de-Haute-Provence)
 Silene brachypoda
-Silène de Requien (Silene requienii) (Corse)
-Cécropiacées
-Coussapoa ferruginea (Guyane)
-Célastracées
-Bois d'olive grosse peau (Pleurostylia pachyphloea) (La Réunion)
-Chrysobalanacées
-Licania cyathodes (Guyane)
-Cistacées
-Ciste de Pouzolz (Cistus pouzolzii) (Cévennes)
-Clusiacées (Guttifères)
-Millepertuis corse (Hypericum corsicum (Corse)
-Combrétacées
-Buchenavia nitidissima (Guyane)
-Costacées
-Costus curcumoides (Guyane)
-Cypéracées
-Costularia melicoides (La Réunion)
-Rhynchospora subdicephala (Guyane)
-Dipsacaceae
-Knautia basaltica (Massif central)
+Silène de Requien (Silene requienii) (Corse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Cécropiacées</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Coussapoa ferruginea (Guyane)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Célastracées</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Bois d'olive grosse peau (Pleurostylia pachyphloea) (La Réunion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Chrysobalanacées</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Licania cyathodes (Guyane)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Cistacées</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Ciste de Pouzolz (Cistus pouzolzii) (Cévennes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Clusiacées (Guttifères)</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Millepertuis corse (Hypericum corsicum (Corse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Combrétacées</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Buchenavia nitidissima (Guyane)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Costacées</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Costus curcumoides (Guyane)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Cypéracées</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Costularia melicoides (La Réunion)
+Rhynchospora subdicephala (Guyane)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Dipsacaceae</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Knautia basaltica (Massif central)
 Knautia forezensis (Massif central)
-Scabiosa corsica - Scabieuse corse (Corse)
-Ébénacées
-Bois noir des hauts (Diospyros borbonica) (La Réunion)
-Éléocarpacées
-Sloanea dussii (Martinique)
-Éricacées
-Branle filao (Erica arborescens) (La Réunion)
+Scabiosa corsica - Scabieuse corse (Corse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Ébénacées</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Bois noir des hauts (Diospyros borbonica) (La Réunion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Éléocarpacées</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Sloanea dussii (Martinique)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Éricacées</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Branle filao (Erica arborescens) (La Réunion)
 Thym marron (Erica galioides) (La Réunion)
-Branle vert (Erica reunionensis) (La Réunion)
-Escalloniacées
-Bois de Laurent Martin (Forgesia racemosa) (La Réunion)
-Euphorbiacées
-Chamaesyce viridula (La Réunion)
+Branle vert (Erica reunionensis) (La Réunion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Escalloniacées</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Bois de Laurent Martin (Forgesia racemosa) (La Réunion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Euphorbiacées</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Chamaesyce viridula (La Réunion)
 Claoxylon dolichostachyum (La Réunion)
 Gros bois d'oiseaux (Claoxylon glandulosum) (La Réunion)
 Grand bois cassant (Claoxylon racemiflorum) (La Réunion)
 Claoxylon setosum (La Réunion)
 Ti bois de senteur (Croton mauritianus) (La Réunion)
 Euphorbia duvalii
-Euphorbia ruscinonensis
-Fabacées
-Tamarin des hauts (Acacia heterophylla) (La Réunion)
+Euphorbia ruscinonensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Fabacées</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Tamarin des hauts (Acacia heterophylla) (La Réunion)
 Cytise d'Ardoino (Cytisus ardoini) (Alpes-Maritimes)
 Cytisus sauzeanus
 Sainfoin de Boutigny (Hedysarum boutignyanum) (régions Rhône-Alpes et Provence-Alpes-Côte d'Azur)
@@ -833,37 +2223,343 @@
 Medicago hybrida
 Petit tamarin des hauts (Sophora denudata) (La Réunion)
 Stryphnodendron moricolor (Guyane)
-Swartzia leblondii (Guyane)
-Géraniacées
-Bec-de-grue de Manescaut (Erodium manescavi) (Pyrénées-Atlantiques et Hautes-Pyrénées)
-Bec-de-grue de Rodié (Erodium rodiei) (Alpes-Maritimes)
-Gesnériacées
-Episcia xantha (Guyane)
-Iridacées
-Romulea corsica (Corse)
-Juncacées
-Juncus guadeloupensis (jonc des hauts) (Guadeloupe)
+Swartzia leblondii (Guyane)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Géraniacées</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Bec-de-grue de Manescaut (Erodium manescavi) (Pyrénées-Atlantiques et Hautes-Pyrénées)
+Bec-de-grue de Rodié (Erodium rodiei) (Alpes-Maritimes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Gesnériacées</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Episcia xantha (Guyane)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Iridacées</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Romulea corsica (Corse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Juncacées</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Juncus guadeloupensis (jonc des hauts) (Guadeloupe)
 Juncus pyrenaeus
-Jonc de Requien ((Juncus requienii) (Corse)
-Lamiacées (Labiées)
-Bois de chenilles (Clerodendrum heterophyllum) (La Réunion)
+Jonc de Requien ((Juncus requienii) (Corse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Lamiacées (Labiées)</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Bois de chenilles (Clerodendrum heterophyllum) (La Réunion)
 Calament de Corse (Clinopodium corsicum) (Corse)
 Germandrée de Rouy (Teucrium rouyanum) (Causses calcaires du sud du Massif central)
 Népéta agreste (Nepeta agrestis) (Corse)
-Thymus nitens (Cévennes)
-Lauracées
-Aiouea longipetiolata (Guyane)
+Thymus nitens (Cévennes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Lauracées</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Aiouea longipetiolata (Guyane)
 Rhodostemonodaphne elephantopus (Guyane)
 Rhodostemonodaphne leptoclada (Guyane)
 Rhodostemonodaphne revolutifolia (Guyane)
-Rhodostemonodaphne rufovirgata (Guyane)
-Lécythidacées
-Eschweilera squamata (Guyane)
-Lentibulariacées
-Grassette des Causses (Pinguicula caussensis) (sud du Massif central)
-Grassette corse (Pinguicula corsica) (Corse)
-Liliacées
-Narcisse des Glénan (Narcissus triandrus subsp. capax) (Archipel des Glénan, Finistère)
+Rhodostemonodaphne rufovirgata (Guyane)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Lécythidacées</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Eschweilera squamata (Guyane)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Lentibulariacées</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Grassette des Causses (Pinguicula caussensis) (sud du Massif central)
+Grassette corse (Pinguicula corsica) (Corse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Liliacées</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Narcisse des Glénan (Narcissus triandrus subsp. capax) (Archipel des Glénan, Finistère)
 Tulipe d'Aime (Tulipa aximensis) (Tarentaise)
 Tulipe de Billiet (Tulipa billietiana) (Tarentaise)
 Tulipe de Didier (Tulipa didieri) (Savoie ; autrefois aussi en Italie et Suisse)
@@ -873,9 +2569,43 @@
 Tulipe de Marjollet (Tulipa perrieri) (Tarentaise)
 Tulipe de Maurienne (Tulipa mauriana) (Maurienne)
 Tulipe de Montandré (Tulipa montisandrei) (Savoie)
-Tulipe des Sarrasins (Tulipa sarracenica) (Maurienne)
-Malvacées
-Dombeya blattiolens (La Réunion)
+Tulipe des Sarrasins (Tulipa sarracenica) (Maurienne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Malvacées</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Dombeya blattiolens (La Réunion)
 Dombeya ciliata (La Réunion)
 Dombeya delislei (La Réunion)
 Mahot rose (Dombeya elegans) (La Réunion)
@@ -886,49 +2616,389 @@
 Dombeya reclinata (La Réunion)
 Dombeya umbellata (La Réunion)
 Bois de senteur blanc (Ruizia cordata) (La Réunion)
-Trochetia granulata (La Réunion)
-Marantacées
-Calathea erecta (Guyane)
-Calathea squarrosa (Guyane)
-Mélanthiacées
-Ossifrage de Reverchon (Narthecium reverchonii) (Corse)
-Mélastomacées
-Charianthus nodosus (Martinique)
+Trochetia granulata (La Réunion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Marantacées</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Calathea erecta (Guyane)
+Calathea squarrosa (Guyane)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Mélanthiacées</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Ossifrage de Reverchon (Narthecium reverchonii) (Corse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Mélastomacées</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Charianthus nodosus (Martinique)
 Ernestia confertiflora (Guyane)
 Ernestia granvillei (Guyane)
 Henriettella ininensis (Guyane)
-Bois de balai (Memecylon confusum) (La Réunion)
-Méliacées
-Guarea michel-moddei (Guyane)
-Monimiaceae
-Mapou des hauts (Monimia amplexicaulis) (La Réunion)
+Bois de balai (Memecylon confusum) (La Réunion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Méliacées</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Guarea michel-moddei (Guyane)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Monimiaceae</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Mapou des hauts (Monimia amplexicaulis) (La Réunion)
 Mapou à grandes feuilles (Monimia rotundifolia) (La Réunion)
 Bois de bombarde à grandes feuilles (Tambourissa crassa) (La Réunion)
-Bois de bombarde (Tambourissa elliptica) (La Réunion)
-Moracées
-Bois de maman (Maillardia borbonica) (La Réunion)
-Myrsinacées
-Ardissia magdalenae (Martinique)
+Bois de bombarde (Tambourissa elliptica) (La Réunion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Moracées</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Bois de maman (Maillardia borbonica) (La Réunion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Myrsinacées</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Ardissia magdalenae (Martinique)
 Bois de savon (Badula barthesia) (La Réunion)
 Badula fragilis (La Réunion)
 Badula grammisticta (La Réunion)
 Badula nitida (La Réunion)
 Badula ovalifolia (La Réunion)
-Cybianthus dussii (Martinique)
-Myrtaceae
-Bois de nèfles à grandes feuilles (Eugenia bosseri) (La Réunion)
+Cybianthus dussii (Martinique)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Myrtaceae</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Bois de nèfles à grandes feuilles (Eugenia bosseri) (La Réunion)
 Bois de nèfles à petites feuilles (Eugenia buxifolia) (La Réunion)
 Eugenia mespiloides (La Réunion)
 Eugenia gryposperma (Martinique)
 Eugenia tetramera (Guyane)
 Myrcia martinicensis (Martinique)
 Bois de pomme (Syzygium cordemoyi) (La Réunion)
-Bois de pomme rouge (Syzygium cymosum) (La Réunion)
-Olacacées
-Bois de cœur bleu (Chionanthus broomeana) (La Réunion)
-Olax mayottensis (Mayotte)
-Orchidacées (Orchidées)
-(5 espèces endémiques en Guadeloupe, 1 en Martinique)
+Bois de pomme rouge (Syzygium cymosum) (La Réunion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Olacacées</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Bois de cœur bleu (Chionanthus broomeana) (La Réunion)
+Olax mayottensis (Mayotte)</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Orchidacées (Orchidées)</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(5 espèces endémiques en Guadeloupe, 1 en Martinique)
 Epidendrum mutelianum (Guadeloupe)
 Epipactis fibri (= Epipactis albensis var. fibri) (vallée du Rhône)
 Octomeria ffrenchiana (Guadeloupe)
@@ -945,22 +3015,159 @@
 Vanilla leprieurii (Guyane)
 Vanilla ovata (Guyane)
 Vanilla porteresiana (Guyane)
-Pandanacées
-Pimpin (Pandanus montanus  (La Réunion)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Pandanacées</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Pimpin (Pandanus montanus  (La Réunion)
 Vacoa des hauts (Pandanus purpurascens) (La Réunion)
-Petit vacoa (Pandanus sylvestris) (La Réunion)
-Papavéracées
-Fumaria caroliana
-Passifloracées
-Passiflora citrifolia (Guyane)
+Petit vacoa (Pandanus sylvestris) (La Réunion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Papavéracées</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Fumaria caroliana</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Passifloracées</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Passiflora citrifolia (Guyane)
 Passiflora crenata (Guyane)
 Passiflora exura (Guyane)
 Passiflora fanchonae (Guyane)
 Passiflora kawensis (Guyane)
 Passiflora rufostipulata (Guyane)
-Passiflora vescoi (Guyane ; décrite en 2003)
-Plumbaginacées
-Arméria de Belgentier (Armeria belgenciensis) (Var) (CR[1])
+Passiflora vescoi (Guyane ; décrite en 2003)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Plumbaginacées</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Arméria de Belgentier (Armeria belgenciensis) (Var) (CR)
 Armeria girardii
 Arméria de Malinvaud (Armeria malinvaudii)
 Armeria leucocephala (Corse)
@@ -975,9 +3182,43 @@
 Limonium obtusifolium (Corse)
 Limonium patrimoniense (Corse)
 Limonium pseudominutum (Bouches-du-Rhône et Var)
-Limonium tarcoense (Corse)
-Poacées (Graminées)
-Agrostis salaziensis (La Réunion)
+Limonium tarcoense (Corse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Poacées (Graminées)</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Agrostis salaziensis (La Réunion)
 Élyme corse (Elytrigia corsica) (Corse)
 Festuca arvernensis Fétuque d'Auvergne (Massif central)
 Festuca breistrofferi
@@ -993,73 +3234,651 @@
 Calumet (Nastus borbonicus) (La Réunion)
 Panicum lycopodioides) (La Réunion)
 Puccinellia foucaudii
-Trisetum conradiae
-Polygonacées
-Coccoloba caravellae (Martinique)
-Primulacées
-Androsace chaixii
-Ranunculacées
-Ancolie de Bernard (Aquilegia bernardii) (Corse)
+Trisetum conradiae</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Polygonacées</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Coccoloba caravellae (Martinique)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Primulacées</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Androsace chaixii</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Ranunculacées</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Ancolie de Bernard (Aquilegia bernardii) (Corse)
 Aquilegia litardierei
 Pied-d'alouette de Requien (Delphinium requienii) (Var)
 Dauphinelle de Requien (sous-espèce du Pied-d'alouette de Requien, Delphinium pictum subsp. requienii) (Var)
 Renoncule de Canut (Ranunculus canuti) (Alpes-Maritimes)
 Renoncule de Marschlins (Ranunculus marschlinsii (Corse)
-Renoncule de Sylvie (Ranunculus sylviae) (Corse)
-Résédacées
-Reseda jacquinii
-Rosacées
-Alchemilla charbonelliana, Auvergne
+Renoncule de Sylvie (Ranunculus sylviae) (Corse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Résédacées</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Reseda jacquinii</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Rosacées</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Alchemilla charbonelliana, Auvergne
 Alisier de Reims (Karpatiosorbus remensis), Marne
 Cotonéaster du Dauphiné (Cotoneaster delphinensis), Dauphiné
 Cotonéaster de Rabou (Cotoneaster raboutensis), Hautes-Alpes et Alpes de Haute-Provence uniquement
 Potentille du Dauphiné (Potentilla delphinensis), Dauphiné et Savoie, dans les Alpes françaises
-Sorbier de Legré (Hedlundia legrei), Alpes de Haute-Provence et Drôme
-Rubiacées
-Bertiera borbonica (La Réunion)
+Sorbier de Legré (Hedlundia legrei), Alpes de Haute-Provence et Drôme</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Rubiacées</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Bertiera borbonica (La Réunion)
 Bois de raisin (Bertiera rufa) (La Réunion)
 Faramea lourteigiana (Guyane)
 Bois de balai (Fernelia buxifolia) (La Réunion)
 Losto café (Gaertnera vaginata) (La Réunion)
 Galium timeroyi
-Rondeletia martinicensis (Martinique)
-Rutacées
-Esenbeckia cowanii (Guyane)
+Rondeletia martinicensis (Martinique)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Rutacées</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Esenbeckia cowanii (Guyane)
 Catafaye (Euodia borbonica) (La Réunion)
 Euodia irifica (La Réunion)
-Bois de catafaye (Euodia segregis) (La Réunion)
-Santalacées
-Thesium corsalpinum (montagnes de Corse)
-Thesium kyrnosum (Corse)
-Sapotacées
-Pouteria benai (Guyane française)
+Bois de catafaye (Euodia segregis) (La Réunion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Santalacées</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Thesium corsalpinum (montagnes de Corse)
+Thesium kyrnosum (Corse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sapotacées</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Pouteria benai (Guyane française)
 Bois de fer bâtard (Sideroxylon borbonicum) (La Réunion)
-Bois de fer (Sideroxylon majus) (La Réunion)
-Saxifragacées
-Saxifraga cebennensis (Cévennes)
-Saxifraga valdensis
-Schizéacées
-Schizaea incurvata (Guyane)
-Scrophulariacées
-Anarrhinum corsicum (Corse)
+Bois de fer (Sideroxylon majus) (La Réunion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Saxifragacées</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Saxifraga cebennensis (Cévennes)
+Saxifraga valdensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Schizéacées</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Schizaea incurvata (Guyane)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Scrophulariacées</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Anarrhinum corsicum (Corse)
 Euphraise de Jaubert (Odontites jaubertiana)
 Linaire à feuilles d'hépatique (Cymbalaria hepaticifolia) (Corse)
 Linaire à feuilles de thym (Linaria thymifolia) (Poitou-Charentes et Aquitaine)
-Odontites corsicus (Corse)
-Sterculiacées
-Byttneria morii (Guyane)
+Odontites corsicus (Corse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sterculiacées</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Byttneria morii (Guyane)
 Dombeya elegans (Réunion)
-Ruizia cordata (La Réunion)
-Thyméléacées
-Passerine de Thomas (Thymelaea thomasii) (Corse)
-Urticacées
-Bois de source blanc (Boehmeria stipularis) (La Réunion)
-Violacées
-Rinorea pectino-squamata (Guyane)
+Ruizia cordata (La Réunion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Thyméléacées</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Passerine de Thomas (Thymelaea thomasii) (Corse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Urticacées</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Bois de source blanc (Boehmeria stipularis) (La Réunion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Violacées</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Rinorea pectino-squamata (Guyane)
 Pensée de Rouen (Viola rothomagensis) (= Viola hispida) (Normandie)
-Violette de Cry (Viola cryana) (Yonne ; éteinte)
-Vochysiacées
-Vochysia neyratii (Guyane)
+Violette de Cry (Viola cryana) (Yonne ; éteinte)</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Vochysiacées</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Vochysia neyratii (Guyane)
 Vochysia sabatieri (Guyane)</t>
         </is>
       </c>
